--- a/Doc/流水线.xlsx
+++ b/Doc/流水线.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\ProjectFiles\cySOC\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97117185-5EDE-49EC-9B80-2C84858E5689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E97B1834-9956-4952-800F-A277D076390F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
   <si>
     <t>IF</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,13 +46,133 @@
   <si>
     <t>jal</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add</t>
+  </si>
+  <si>
+    <t>addi</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>andi</t>
+  </si>
+  <si>
+    <t>auipc</t>
+  </si>
+  <si>
+    <t>beq</t>
+  </si>
+  <si>
+    <t>bge</t>
+  </si>
+  <si>
+    <t>bgeu</t>
+  </si>
+  <si>
+    <t>blt</t>
+  </si>
+  <si>
+    <t>bltu</t>
+  </si>
+  <si>
+    <t>bne</t>
+  </si>
+  <si>
+    <t>fence.i</t>
+  </si>
+  <si>
+    <t>jal</t>
+  </si>
+  <si>
+    <t>jalr</t>
+  </si>
+  <si>
+    <t>lb</t>
+  </si>
+  <si>
+    <t>lbu</t>
+  </si>
+  <si>
+    <t>ld</t>
+  </si>
+  <si>
+    <t>lh</t>
+  </si>
+  <si>
+    <t>lhu</t>
+  </si>
+  <si>
+    <t>lui</t>
+  </si>
+  <si>
+    <t>lw</t>
+  </si>
+  <si>
+    <t>or</t>
+  </si>
+  <si>
+    <t>ori</t>
+  </si>
+  <si>
+    <t>sb</t>
+  </si>
+  <si>
+    <t>sh</t>
+  </si>
+  <si>
+    <t>sll</t>
+  </si>
+  <si>
+    <t>slli</t>
+  </si>
+  <si>
+    <t>slt</t>
+  </si>
+  <si>
+    <t>slti</t>
+  </si>
+  <si>
+    <t>sltiu</t>
+  </si>
+  <si>
+    <t>sltu</t>
+  </si>
+  <si>
+    <t>sra</t>
+  </si>
+  <si>
+    <t>srai</t>
+  </si>
+  <si>
+    <t>srl</t>
+  </si>
+  <si>
+    <t>srli</t>
+  </si>
+  <si>
+    <t>st_ld</t>
+  </si>
+  <si>
+    <t>sub</t>
+  </si>
+  <si>
+    <t>sw</t>
+  </si>
+  <si>
+    <t>xor</t>
+  </si>
+  <si>
+    <t>xori</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,13 +210,26 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -108,12 +241,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -126,9 +262,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -393,15 +533,108 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="H19:M25"/>
+  <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="19" spans="8:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
       <c r="H19" s="1" t="s">
         <v>0</v>
       </c>
@@ -421,7 +654,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="8:13" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
       <c r="H20" s="1" t="s">
         <v>1</v>
       </c>
@@ -438,7 +674,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="8:13" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
       <c r="H21" s="1" t="s">
         <v>2</v>
       </c>
@@ -452,7 +691,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="8:13" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A22" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="H22" s="1" t="s">
         <v>3</v>
       </c>
@@ -463,7 +705,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="8:13" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A23" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="H23" s="1" t="s">
         <v>4</v>
       </c>
@@ -471,8 +716,91 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="8:13" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
       <c r="L25" s="2"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A26" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A27" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A28" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A29" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A30" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A31" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A32" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A40" s="4" t="s">
+        <v>45</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Doc/流水线.xlsx
+++ b/Doc/流水线.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\ProjectFiles\cySOC\Doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\cySOC\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E97B1834-9956-4952-800F-A277D076390F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1438924-644D-4DFE-8326-3FD825DD689E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -536,7 +536,7 @@
   <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -612,12 +612,12 @@
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
+      <c r="A15" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
+      <c r="A16" s="4" t="s">
         <v>21</v>
       </c>
     </row>
@@ -627,12 +627,12 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
+      <c r="A18" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
+      <c r="A19" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H19" s="1" t="s">
@@ -655,7 +655,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
+      <c r="A20" s="4" t="s">
         <v>25</v>
       </c>
       <c r="H20" s="1" t="s">
@@ -675,7 +675,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
+      <c r="A21" s="4" t="s">
         <v>26</v>
       </c>
       <c r="H21" s="1" t="s">

--- a/Doc/流水线.xlsx
+++ b/Doc/流水线.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\cySOC\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1438924-644D-4DFE-8326-3FD825DD689E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF4863C-5F78-4C94-9FCE-489C9FE89751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -536,7 +536,7 @@
   <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -602,7 +602,7 @@
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
+      <c r="A13" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -717,12 +717,12 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
+      <c r="A24" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
+      <c r="A25" s="4" t="s">
         <v>30</v>
       </c>
       <c r="L25" s="2"/>
@@ -788,7 +788,7 @@
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A38" t="s">
+      <c r="A38" s="4" t="s">
         <v>43</v>
       </c>
     </row>

--- a/Doc/流水线.xlsx
+++ b/Doc/流水线.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\cySOC\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF4863C-5F78-4C94-9FCE-489C9FE89751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{222EF51B-5534-4CCC-81A7-EB023EB6234F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -96,9 +96,6 @@
     <t>lbu</t>
   </si>
   <si>
-    <t>ld</t>
-  </si>
-  <si>
     <t>lh</t>
   </si>
   <si>
@@ -166,6 +163,10 @@
   </si>
   <si>
     <t>xori</t>
+  </si>
+  <si>
+    <t>ld_st</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -536,7 +537,7 @@
   <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -607,7 +608,7 @@
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
+      <c r="A14" s="4" t="s">
         <v>19</v>
       </c>
     </row>
@@ -622,18 +623,18 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>22</v>
+      <c r="A17" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>0</v>
@@ -656,7 +657,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>1</v>
@@ -676,7 +677,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>2</v>
@@ -693,7 +694,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>3</v>
@@ -707,7 +708,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>4</v>
@@ -718,88 +719,88 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L25" s="2"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" s="4" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A36" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
